--- a/admin/uploads/hoang1.xlsx
+++ b/admin/uploads/hoang1.xlsx
@@ -247,7 +247,7 @@
     <t>giày nike</t>
   </si>
   <si>
-    <t>TH168820</t>
+    <t>THOD274</t>
   </si>
 </sst>
 </file>
@@ -1216,6 +1216,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1290,7 +1291,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1707,7 +1707,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E5"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,39 +1730,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="92"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="93"/>
     </row>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="93"/>
-      <c r="B2" s="95" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="98"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="99"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1772,18 +1772,18 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="91"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="92"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
       <c r="M3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1793,20 +1793,20 @@
       <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="92"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="93"/>
       <c r="M4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1817,22 +1817,22 @@
       <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="92"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="93"/>
       <c r="M5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1846,20 +1846,20 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="92"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="93"/>
       <c r="M6" s="9" t="s">
         <v>9</v>
       </c>
@@ -1873,20 +1873,20 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="92"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="93"/>
       <c r="M7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1896,20 +1896,20 @@
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="92"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="93"/>
       <c r="M8" s="9" t="s">
         <v>13</v>
       </c>
@@ -1920,19 +1920,19 @@
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="127" t="s">
+      <c r="C9" s="104"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="85" t="s">
         <v>14</v>
       </c>
       <c r="N9" s="10">
@@ -1942,18 +1942,18 @@
       <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="92"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93"/>
       <c r="M10" s="15" t="s">
         <v>15</v>
       </c>
@@ -1967,18 +1967,18 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="91"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="92"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
       <c r="M11" s="15" t="s">
         <v>16</v>
       </c>
@@ -1986,18 +1986,18 @@
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="102"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="103"/>
       <c r="M12" s="15" t="s">
         <v>17</v>
       </c>
@@ -2011,21 +2011,21 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="87"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="88"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="83" t="s">
@@ -2360,35 +2360,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="107"/>
-      <c r="B1" s="108"/>
-      <c r="C1" s="109" t="s">
+      <c r="A1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="88"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="114" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="115" t="s">
         <v>45</v>
       </c>
       <c r="J2" s="33" t="s">
@@ -2409,17 +2409,17 @@
       <c r="A3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="117" t="e">
+      <c r="B3" s="118" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="115"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="116"/>
       <c r="J3" s="36" t="s">
         <v>7</v>
       </c>
@@ -2438,17 +2438,17 @@
       <c r="A4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="120" t="e">
+      <c r="B4" s="121" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="115"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="116"/>
       <c r="J4" s="36" t="s">
         <v>46</v>
       </c>
@@ -2467,17 +2467,17 @@
       <c r="A5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="117" t="e">
+      <c r="B5" s="118" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="115"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="116"/>
       <c r="J5" s="36" t="s">
         <v>13</v>
       </c>
@@ -2497,11 +2497,11 @@
       <c r="B6" s="39"/>
       <c r="C6" s="40"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="115"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="116"/>
       <c r="J6" s="36" t="s">
         <v>47</v>
       </c>
@@ -2520,17 +2520,17 @@
       <c r="A7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="121" t="e">
+      <c r="B7" s="122" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="115"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="116"/>
       <c r="J7" s="36" t="s">
         <v>14</v>
       </c>
@@ -2561,11 +2561,11 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E8" s="99"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="115"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="116"/>
       <c r="J8" s="47" t="s">
         <v>15</v>
       </c>
@@ -2590,11 +2590,11 @@
       </c>
       <c r="C9" s="50"/>
       <c r="D9" s="51"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="115"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="116"/>
       <c r="J9" s="47" t="s">
         <v>16</v>
       </c>
@@ -2619,11 +2619,11 @@
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="55"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="116"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="117"/>
       <c r="J10" s="56" t="s">
         <v>17</v>
       </c>
@@ -2679,12 +2679,12 @@
       <c r="H12" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="124" t="s">
+      <c r="I12" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="88"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="69"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="98"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="99"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
@@ -2730,12 +2730,12 @@
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
-      <c r="I14" s="126" t="s">
+      <c r="I14" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="93"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
@@ -2748,10 +2748,10 @@
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="92"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="93"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
@@ -2764,10 +2764,10 @@
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="92"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="93"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
@@ -2780,10 +2780,10 @@
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="92"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="93"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
@@ -2796,10 +2796,10 @@
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="92"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="93"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
@@ -2812,10 +2812,10 @@
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="92"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="93"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
@@ -2828,10 +2828,10 @@
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="102"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="103"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
@@ -2844,12 +2844,12 @@
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
-      <c r="I21" s="104" t="s">
+      <c r="I21" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="107"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
@@ -2862,10 +2862,10 @@
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="92"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="93"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
@@ -2878,10 +2878,10 @@
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="92"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="93"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
@@ -2894,10 +2894,10 @@
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="92"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="93"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
@@ -2910,10 +2910,10 @@
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="92"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="93"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
@@ -2926,10 +2926,10 @@
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="92"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="93"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
@@ -2942,10 +2942,10 @@
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="102"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="103"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
@@ -2958,12 +2958,12 @@
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
-      <c r="I28" s="104" t="s">
+      <c r="I28" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="107"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
@@ -2976,10 +2976,10 @@
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="92"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="93"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
@@ -2992,10 +2992,10 @@
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="92"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="93"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
@@ -3008,10 +3008,10 @@
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="92"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="93"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
@@ -3024,10 +3024,10 @@
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="92"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="93"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
@@ -3040,10 +3040,10 @@
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="92"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="93"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
@@ -3056,10 +3056,10 @@
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="102"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="103"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
@@ -3072,12 +3072,12 @@
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
-      <c r="I35" s="104" t="s">
+      <c r="I35" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="107"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
@@ -3090,10 +3090,10 @@
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="92"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="93"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
@@ -3106,10 +3106,10 @@
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="92"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="93"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
@@ -3122,10 +3122,10 @@
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="92"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="93"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
@@ -3138,10 +3138,10 @@
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="92"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="93"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
@@ -3154,10 +3154,10 @@
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="92"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="93"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
@@ -3170,10 +3170,10 @@
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101"/>
-      <c r="L41" s="102"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="102"/>
+      <c r="L41" s="103"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
